--- a/htdocs/App/Controllers/Traspasos/5910FDV.xlsx
+++ b/htdocs/App/Controllers/Traspasos/5910FDV.xlsx
@@ -31,13 +31,13 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>29-11-2017</t>
+    <t>16-01-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
   </si>
   <si>
-    <t>Jaume</t>
+    <t>Silvia</t>
   </si>
   <si>
     <t>Provisión</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-11-29</t>
+    <t>2018-01-16</t>
   </si>
   <si>
     <t>x</t>
@@ -1385,7 +1385,7 @@
       <c r="W16" s="60"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="36">
-        <v>12.4</v>
+        <v>58</v>
       </c>
       <c r="Z16" s="14" t="s">
         <v>13</v>
